--- a/testdata/loginData.xlsx
+++ b/testdata/loginData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -19,7 +19,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>bedofe8332@easipro.com</t>
+    <t>daref44118@erapk.com</t>
+  </si>
+  <si>
+    <t>TestPassword123@</t>
+  </si>
+  <si>
+    <t>piwoh70374@excederm.com</t>
+  </si>
+  <si>
+    <t>yeparir662@bankrau.com</t>
   </si>
 </sst>
 </file>
@@ -277,6 +286,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -292,23 +302,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
